--- a/biology/Zoologie/Cicurina_wiltoni/Cicurina_wiltoni.xlsx
+++ b/biology/Zoologie/Cicurina_wiltoni/Cicurina_wiltoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cicurina wiltoni est une espèce d'araignées aranéomorphes de la famille des Cicurinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cicurina wiltoni est une espèce d'araignées aranéomorphes de la famille des Cicurinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Alabama aux États-Unis[1],[2]. Elle se rencontre dans le comté de Jefferson dans la grotte Crystal Caverns (McClunney-Alabama Caverns)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Alabama aux États-Unis,. Elle se rencontre dans le comté de Jefferson dans la grotte Crystal Caverns (McClunney-Alabama Caverns).
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5 mm et le mâle paratype 4 mm[4].
-La femelle décrite par Paquin et Dupérré en 2009 mesure 4,68 mm[3].
-Cette araignée est anophtalme[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5 mm et le mâle paratype 4 mm.
+La femelle décrite par Paquin et Dupérré en 2009 mesure 4,68 mm.
+Cette araignée est anophtalme.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Gertsch en 1992.
 </t>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Wilton Ivie[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Wilton Ivie.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gertsch, 1992 : « Distribution patterns and speciation in North American cave spiders with a list of the troglobites and revision of the cicurinas of the subgenus Cicurella. » Texas Memorial Museum Speleological Monograph, no 3, p. 75-122.</t>
         </is>
